--- a/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
+++ b/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
@@ -471,17 +471,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>west</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>east</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02:31:35</t>
+          <t>00:54:18</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>west</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>east</t>
+          <t>south</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>02:32:59</t>
+          <t>00:55:21</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>east</t>
+          <t>south</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>west</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>02:33:42</t>
+          <t>00:55:59</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>south</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>east</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>west</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>02:34:53</t>
+          <t>00:57:01</t>
         </is>
       </c>
     </row>

--- a/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
+++ b/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:54:18</t>
+          <t>16:03:43</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:55:21</t>
+          <t>16:04:43</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:55:59</t>
+          <t>16:05:15</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>00:57:01</t>
+          <t>16:06:14</t>
         </is>
       </c>
     </row>

--- a/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
+++ b/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>car/taxi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16:03:43</t>
+          <t>02:18:12</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>02:19:11</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>car/taxi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -531,32 +531,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16:05:15</t>
+          <t>02:19:48</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>south</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>29</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>motorcycle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>light vehicle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>south</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>east</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16:06:14</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>02:21:03</t>
         </is>
       </c>
     </row>

--- a/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
+++ b/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,122 +462,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>car/taxi</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>west</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>east</t>
-        </is>
-      </c>
+          <t>south</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02:18:12</t>
+          <t>17:59:54</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>car/taxi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>west</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>south</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>02:19:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>car/taxi</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>west</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>02:19:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>25</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>02:20:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>29</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>light vehicle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>east</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>02:21:03</t>
+          <t>18:00:07</t>
         </is>
       </c>
     </row>

--- a/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
+++ b/YOLOv8-DeepSORT-Object-Tracking/ultralytics/yolo/v8/detect/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,11 +462,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>car/taxi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,13 +477,13 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17:59:54</t>
+          <t>02:28:19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -498,7 +498,95 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18:00:07</t>
+          <t>02:28:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>car/taxi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>west</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>02:29:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>car/taxi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>south</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02:29:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>car/taxi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>west</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>02:29:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>car/taxi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>east</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>north</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>02:29:45</t>
         </is>
       </c>
     </row>
